--- a/team_specific_matrix/Eastern Ill._B.xlsx
+++ b/team_specific_matrix/Eastern Ill._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1693121693121693</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="C2">
-        <v>0.6296296296296297</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02645502645502645</v>
+        <v>0.01712328767123288</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="P2">
-        <v>0.1058201058201058</v>
+        <v>0.1267123287671233</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06878306878306878</v>
+        <v>0.07876712328767123</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.008403361344537815</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03361344537815126</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7647058823529411</v>
+        <v>0.7485714285714286</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1932773109243698</v>
+        <v>0.2114285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.696969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05660377358490566</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09433962264150944</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2452830188679245</v>
+        <v>0.2731277533039648</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01257861635220126</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1446540880503145</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="R6">
-        <v>0.08176100628930817</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="S6">
-        <v>0.3647798742138365</v>
+        <v>0.3700440528634361</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05932203389830509</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0423728813559322</v>
+        <v>0.03125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05084745762711865</v>
+        <v>0.0375</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1186440677966102</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02542372881355932</v>
+        <v>0.01875</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1525423728813559</v>
+        <v>0.1625</v>
       </c>
       <c r="R7">
-        <v>0.1271186440677966</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.423728813559322</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1164556962025316</v>
+        <v>0.1180952380952381</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01518987341772152</v>
+        <v>0.01523809523809524</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06075949367088607</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07341772151898734</v>
+        <v>0.07809523809523809</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02784810126582278</v>
+        <v>0.02476190476190476</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.169620253164557</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R8">
-        <v>0.0810126582278481</v>
+        <v>0.08380952380952381</v>
       </c>
       <c r="S8">
-        <v>0.4556962025316456</v>
+        <v>0.4419047619047619</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.11</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.19</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="R9">
-        <v>0.12</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="S9">
-        <v>0.48</v>
+        <v>0.4829931972789115</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09606481481481481</v>
+        <v>0.1058631921824104</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02662037037037037</v>
+        <v>0.0252442996742671</v>
       </c>
       <c r="E10">
-        <v>0.002314814814814815</v>
+        <v>0.00244299674267101</v>
       </c>
       <c r="F10">
-        <v>0.07523148148148148</v>
+        <v>0.07573289902280131</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1018518518518518</v>
+        <v>0.1042345276872964</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0162037037037037</v>
+        <v>0.01302931596091205</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1840277777777778</v>
+        <v>0.1864820846905537</v>
       </c>
       <c r="R10">
-        <v>0.07175925925925926</v>
+        <v>0.07573289902280131</v>
       </c>
       <c r="S10">
-        <v>0.4259259259259259</v>
+        <v>0.4112377850162867</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1290322580645161</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07526881720430108</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K11">
-        <v>0.1827956989247312</v>
+        <v>0.1803921568627451</v>
       </c>
       <c r="L11">
-        <v>0.5860215053763441</v>
+        <v>0.6039215686274509</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02688172043010753</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7657657657657657</v>
+        <v>0.7341772151898734</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2072072072072072</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="L12">
-        <v>0.009009009009009009</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01801801801801802</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7727272727272727</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1818181818181818</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02097902097902098</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1608391608391608</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="I15">
-        <v>0.04195804195804196</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="J15">
-        <v>0.3706293706293706</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="K15">
-        <v>0.08391608391608392</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02097902097902098</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02797202797202797</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01503759398496241</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2255639097744361</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="I16">
-        <v>0.06015037593984962</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J16">
-        <v>0.3984962406015037</v>
+        <v>0.4336734693877551</v>
       </c>
       <c r="K16">
-        <v>0.09774436090225563</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07518796992481203</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1278195488721804</v>
+        <v>0.1530612244897959</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02142857142857143</v>
+        <v>0.02544529262086514</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2428571428571429</v>
+        <v>0.2239185750636132</v>
       </c>
       <c r="I17">
-        <v>0.06428571428571428</v>
+        <v>0.07888040712468193</v>
       </c>
       <c r="J17">
-        <v>0.4142857142857143</v>
+        <v>0.3867684478371501</v>
       </c>
       <c r="K17">
-        <v>0.07142857142857142</v>
+        <v>0.07633587786259542</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01071428571428571</v>
+        <v>0.01272264631043257</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03928571428571428</v>
+        <v>0.05089058524173028</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1357142857142857</v>
+        <v>0.1450381679389313</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02255639097744361</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1729323308270677</v>
+        <v>0.1602209944751381</v>
       </c>
       <c r="I18">
-        <v>0.09774436090225563</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="J18">
-        <v>0.4887218045112782</v>
+        <v>0.4806629834254144</v>
       </c>
       <c r="K18">
-        <v>0.06766917293233082</v>
+        <v>0.06077348066298342</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02255639097744361</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04511278195488722</v>
+        <v>0.06077348066298342</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08270676691729323</v>
+        <v>0.1104972375690608</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0124095139607032</v>
+        <v>0.01317715959004392</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2585315408479835</v>
+        <v>0.2489019033674963</v>
       </c>
       <c r="I19">
-        <v>0.05584281282316442</v>
+        <v>0.05563689604685212</v>
       </c>
       <c r="J19">
-        <v>0.3764219234746639</v>
+        <v>0.3777452415812592</v>
       </c>
       <c r="K19">
-        <v>0.09824198552223372</v>
+        <v>0.09736456808199122</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01344364012409514</v>
+        <v>0.01464128843338214</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06514994829369183</v>
+        <v>0.06661786237188873</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1199586349534643</v>
+        <v>0.1259150805270864</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Eastern Ill._B.xlsx
+++ b/team_specific_matrix/Eastern Ill._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1780821917808219</v>
+        <v>0.1848484848484848</v>
       </c>
       <c r="C2">
-        <v>0.5958904109589042</v>
+        <v>0.5787878787878787</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01712328767123288</v>
+        <v>0.02121212121212121</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003424657534246575</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="P2">
-        <v>0.1267123287671233</v>
+        <v>0.1303030303030303</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07876712328767123</v>
+        <v>0.08181818181818182</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01142857142857143</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02857142857142857</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7485714285714286</v>
+        <v>0.7305699481865285</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2114285714285714</v>
+        <v>0.227979274611399</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07048458149779736</v>
+        <v>0.07509881422924901</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08370044052863436</v>
+        <v>0.08300395256916997</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2731277533039648</v>
+        <v>0.2766798418972332</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01762114537444934</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1277533039647577</v>
+        <v>0.1383399209486166</v>
       </c>
       <c r="R6">
-        <v>0.05726872246696035</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="S6">
-        <v>0.3700440528634361</v>
+        <v>0.3517786561264822</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03125</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0375</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01875</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1625</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="S7">
-        <v>0.45</v>
+        <v>0.4480874316939891</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1180952380952381</v>
+        <v>0.1147826086956522</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01523809523809524</v>
+        <v>0.01391304347826087</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06666666666666667</v>
+        <v>0.07130434782608695</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07809523809523809</v>
+        <v>0.08869565217391304</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02476190476190476</v>
+        <v>0.02434782608695652</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1714285714285714</v>
+        <v>0.1686956521739131</v>
       </c>
       <c r="R8">
-        <v>0.08380952380952381</v>
+        <v>0.08173913043478261</v>
       </c>
       <c r="S8">
-        <v>0.4419047619047619</v>
+        <v>0.4365217391304348</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1020408163265306</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01360544217687075</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04761904761904762</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04761904761904762</v>
+        <v>0.05487804878048781</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01360544217687075</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1768707482993197</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="R9">
-        <v>0.1156462585034014</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="S9">
-        <v>0.4829931972789115</v>
+        <v>0.4634146341463415</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1058631921824104</v>
+        <v>0.1047687861271676</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0252442996742671</v>
+        <v>0.02601156069364162</v>
       </c>
       <c r="E10">
-        <v>0.00244299674267101</v>
+        <v>0.002167630057803468</v>
       </c>
       <c r="F10">
-        <v>0.07573289902280131</v>
+        <v>0.07369942196531792</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1042345276872964</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01302931596091205</v>
+        <v>0.01228323699421965</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1864820846905537</v>
+        <v>0.1871387283236994</v>
       </c>
       <c r="R10">
-        <v>0.07573289902280131</v>
+        <v>0.07586705202312138</v>
       </c>
       <c r="S10">
-        <v>0.4112377850162867</v>
+        <v>0.4082369942196532</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1254901960784314</v>
+        <v>0.1223776223776224</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06666666666666667</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="K11">
-        <v>0.1803921568627451</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L11">
-        <v>0.6039215686274509</v>
+        <v>0.6118881118881119</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02352941176470588</v>
+        <v>0.02097902097902098</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7341772151898734</v>
+        <v>0.7430167597765364</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2151898734177215</v>
+        <v>0.2122905027932961</v>
       </c>
       <c r="K12">
-        <v>0.006329113924050633</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.0189873417721519</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02531645569620253</v>
+        <v>0.0223463687150838</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6774193548387096</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2580645161290323</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06451612903225806</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0196078431372549</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1617647058823529</v>
+        <v>0.167420814479638</v>
       </c>
       <c r="I15">
-        <v>0.04901960784313725</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="J15">
-        <v>0.392156862745098</v>
+        <v>0.3936651583710407</v>
       </c>
       <c r="K15">
-        <v>0.07352941176470588</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01470588235294118</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0392156862745098</v>
+        <v>0.03619909502262444</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2443438914027149</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01530612244897959</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1836734693877551</v>
+        <v>0.1767441860465116</v>
       </c>
       <c r="I16">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="J16">
-        <v>0.4336734693877551</v>
+        <v>0.4325581395348837</v>
       </c>
       <c r="K16">
-        <v>0.07653061224489796</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00510204081632653</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06122448979591837</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1530612244897959</v>
+        <v>0.1441860465116279</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02544529262086514</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2239185750636132</v>
+        <v>0.2224719101123596</v>
       </c>
       <c r="I17">
-        <v>0.07888040712468193</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J17">
-        <v>0.3867684478371501</v>
+        <v>0.3887640449438202</v>
       </c>
       <c r="K17">
-        <v>0.07633587786259542</v>
+        <v>0.08089887640449438</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01272264631043257</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05089058524173028</v>
+        <v>0.04943820224719101</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1450381679389313</v>
+        <v>0.1460674157303371</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02209944751381215</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1602209944751381</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="I18">
-        <v>0.08839779005524862</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="J18">
-        <v>0.4806629834254144</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="K18">
-        <v>0.06077348066298342</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01657458563535912</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06077348066298342</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1104972375690608</v>
+        <v>0.1089108910891089</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01317715959004392</v>
+        <v>0.01198402130492676</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2489019033674963</v>
+        <v>0.2463382157123835</v>
       </c>
       <c r="I19">
-        <v>0.05563689604685212</v>
+        <v>0.05725699067909454</v>
       </c>
       <c r="J19">
-        <v>0.3777452415812592</v>
+        <v>0.3794940079893475</v>
       </c>
       <c r="K19">
-        <v>0.09736456808199122</v>
+        <v>0.09853528628495339</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01464128843338214</v>
+        <v>0.01464713715046605</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.001997336884154461</v>
       </c>
       <c r="O19">
-        <v>0.06661786237188873</v>
+        <v>0.06724367509986684</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1259150805270864</v>
+        <v>0.1225033288948069</v>
       </c>
     </row>
   </sheetData>
